--- a/data1.xlsx
+++ b/data1.xlsx
@@ -484,7 +484,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Основной цвет </t>
+          <t xml:space="preserve"> Цвет </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
